--- a/insumos/produccion_gas_1999-2019_t1.xlsx
+++ b/insumos/produccion_gas_1999-2019_t1.xlsx
@@ -51,9 +51,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -175,7 +176,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -263,7 +264,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -273,7 +274,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="18.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.53"/>
   </cols>
   <sheetData>
